--- a/Modelos UML/Descrição UseCases/EscolherEspecificacoes.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherEspecificacoes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Desktop\UM\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EAD28F-5577-44FD-897E-C610333B56D8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Actor input</t>
   </si>
@@ -79,15 +78,6 @@
     <t>7. Verifica especificações</t>
   </si>
   <si>
-    <t>8. Pergunta se pretende confirmar</t>
-  </si>
-  <si>
-    <t>9. Confirma</t>
-  </si>
-  <si>
-    <t>10. Regista no sistema e adiciona a fila de espera</t>
-  </si>
-  <si>
     <t>Alternativa 1 [Peças Incompativeis] (passo 5)</t>
   </si>
   <si>
@@ -100,16 +90,31 @@
     <t>Regressa a 5</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1 Não confirma </t>
-  </si>
-  <si>
-    <t>Alternativa 2 [Não confirma a compra] (passo 9)</t>
+    <t>9. Mostra preço</t>
+  </si>
+  <si>
+    <t>10. Pergunta se pretende confirmar</t>
+  </si>
+  <si>
+    <t>12. Regista no sistema e adiciona a fila de espera</t>
+  </si>
+  <si>
+    <t>11. Confirma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1 Não confirma </t>
+  </si>
+  <si>
+    <t>Alternativa 2 [Não confirma a compra] (passo 11)</t>
+  </si>
+  <si>
+    <t>8. Calcula preço</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -704,11 +709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -818,87 +823,101 @@
       <c r="B14" s="24"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="24"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="24"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="18"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="18"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+    </row>
+    <row r="23" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="17"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B6:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Modelos UML/Descrição UseCases/EscolherEspecificacoes.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherEspecificacoes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Desktop\UM\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FBB2D5-A412-44B5-8BA0-9F6B524ACD48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Actor input</t>
   </si>
@@ -78,15 +79,6 @@
     <t>7. Verifica especificações</t>
   </si>
   <si>
-    <t>Alternativa 1 [Peças Incompativeis] (passo 5)</t>
-  </si>
-  <si>
-    <t>5.1 Verifica que especificações não estão corretas</t>
-  </si>
-  <si>
-    <t>5.2 Informa que escolheu peças incompativeis e/ou peças em falta</t>
-  </si>
-  <si>
     <t>Regressa a 5</t>
   </si>
   <si>
@@ -109,12 +101,24 @@
   </si>
   <si>
     <t>8. Calcula preço</t>
+  </si>
+  <si>
+    <t>Alternativa 1 [Peças Incompativeis] (passo 6)</t>
+  </si>
+  <si>
+    <t>6.1 Verifica que especificações não estão corretas</t>
+  </si>
+  <si>
+    <t>6.2 Informa que escolheu peças incompativeis e/ou peças em falta</t>
+  </si>
+  <si>
+    <t>Regressa a 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -709,11 +713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,27 +827,27 @@
       <c r="B14" s="24"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="24"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24"/>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -851,7 +855,7 @@
       <c r="B18" s="24"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -861,33 +865,33 @@
     </row>
     <row r="20" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -895,7 +899,7 @@
       <c r="B24" s="16"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Modelos UML/Descrição UseCases/EscolherEspecificacoes.xlsx
+++ b/Modelos UML/Descrição UseCases/EscolherEspecificacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FBB2D5-A412-44B5-8BA0-9F6B524ACD48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5555CBE-D841-45FE-8671-6EEE946387B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Actor input</t>
   </si>
@@ -55,64 +55,58 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Registado no Sistema</t>
-  </si>
-  <si>
     <t>1.&lt;&lt;include&gt;&gt; Comprar Carro</t>
   </si>
   <si>
-    <t>2.Mostra opções</t>
-  </si>
-  <si>
-    <t>3. Seleciona personalizar especificações</t>
-  </si>
-  <si>
-    <t>4. Mostra opções</t>
-  </si>
-  <si>
-    <t>5. Escolhe especificações</t>
-  </si>
-  <si>
-    <t>6. Regista especificações</t>
-  </si>
-  <si>
-    <t>7. Verifica especificações</t>
-  </si>
-  <si>
-    <t>Regressa a 5</t>
-  </si>
-  <si>
-    <t>9. Mostra preço</t>
-  </si>
-  <si>
-    <t>10. Pergunta se pretende confirmar</t>
-  </si>
-  <si>
-    <t>12. Regista no sistema e adiciona a fila de espera</t>
-  </si>
-  <si>
-    <t>11. Confirma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1 Não confirma </t>
-  </si>
-  <si>
-    <t>Alternativa 2 [Não confirma a compra] (passo 11)</t>
-  </si>
-  <si>
-    <t>8. Calcula preço</t>
-  </si>
-  <si>
-    <t>Alternativa 1 [Peças Incompativeis] (passo 6)</t>
-  </si>
-  <si>
-    <t>6.1 Verifica que especificações não estão corretas</t>
-  </si>
-  <si>
-    <t>6.2 Informa que escolheu peças incompativeis e/ou peças em falta</t>
-  </si>
-  <si>
-    <t>Regressa a 1</t>
+    <t>2. Mostra opções</t>
+  </si>
+  <si>
+    <t>4. Regista especificações</t>
+  </si>
+  <si>
+    <t>5. Verifica especificações</t>
+  </si>
+  <si>
+    <t>6. Calcula preço</t>
+  </si>
+  <si>
+    <t>7. Mostra preço</t>
+  </si>
+  <si>
+    <t>8. Pergunta se pretende confirmar</t>
+  </si>
+  <si>
+    <t>10. Regista no sistema e adiciona a fila de espera</t>
+  </si>
+  <si>
+    <t>9. Confirma</t>
+  </si>
+  <si>
+    <t>3. Escolhe especificações</t>
+  </si>
+  <si>
+    <t>Alternativa 1 [Peças Incompativeis] (passo 5)</t>
+  </si>
+  <si>
+    <t>5.1 Verifica que especificações não estão corretas</t>
+  </si>
+  <si>
+    <t>5.2 Informa que escolheu peças incompativeis e/ou peças em falta</t>
+  </si>
+  <si>
+    <t>Regressa a 3</t>
+  </si>
+  <si>
+    <t>Exceção 1 [Não confirma a compra] (passo 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1 Não confirma </t>
+  </si>
+  <si>
+    <t>Carro encomendado</t>
+  </si>
+  <si>
+    <t>Autenticado no sistema e escolheu personalizar o carro</t>
   </si>
 </sst>
 </file>
@@ -714,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D27"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D4" s="20"/>
     </row>
@@ -760,7 +754,9 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="22"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -777,7 +773,7 @@
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -785,13 +781,13 @@
       <c r="B8" s="24"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -799,129 +795,113 @@
       <c r="B10" s="24"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="24"/>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="24"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="24"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="24"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24"/>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="18"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="24"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="18"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="18"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="2:4" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="B6:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
